--- a/data/PW020.xlsx
+++ b/data/PW020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>emailid</t>
   </si>
@@ -34,10 +34,10 @@
     <t>verifytext</t>
   </si>
   <si>
-    <t>rajaprabha.sathishkumar@saggezza.com</t>
-  </si>
-  <si>
-    <t>prabha2016</t>
+    <t>sudharsan.kg@saggezza.com</t>
+  </si>
+  <si>
+    <t>qwerty123</t>
   </si>
   <si>
     <t>01/29/17</t>
@@ -46,7 +46,10 @@
     <t>11:00 AM</t>
   </si>
   <si>
-    <t>Order Confirmation </t>
+    <t>sudharsan@27</t>
+  </si>
+  <si>
+    <t>Order Confirmation</t>
   </si>
 </sst>
 </file>
@@ -57,7 +60,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -79,6 +82,12 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -129,12 +138,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -225,8 +238,8 @@
   </sheetPr>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F6" activeCellId="0" sqref="F6"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -263,8 +276,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="40.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+    <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="0" t="s">
@@ -273,20 +286,24 @@
       <c r="C2" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>8</v>
       </c>
       <c r="E2" s="0" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="3" t="s">
         <v>9</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" display="sudharsan.kg@saggezza.com"/>
+    <hyperlink ref="F2" r:id="rId2" display="sudharsan@27"/>
+  </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/data/PW020.xlsx
+++ b/data/PW020.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>emailid</t>
   </si>
@@ -31,6 +31,9 @@
     <t>time</t>
   </si>
   <si>
+    <t>verifyDate</t>
+  </si>
+  <si>
     <t>verifytext</t>
   </si>
   <si>
@@ -40,7 +43,7 @@
     <t>qwerty123</t>
   </si>
   <si>
-    <t>01/29/17</t>
+    <t>03/03/17</t>
   </si>
   <si>
     <t>11:00 AM</t>
@@ -60,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="HH:MM:SS\ AM/PM"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -82,12 +85,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -147,7 +144,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -236,10 +233,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
@@ -248,9 +245,9 @@
     <col collapsed="false" hidden="false" max="2" min="2" style="0" width="13.0663265306122"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="36.6275510204082"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="36.6275510204082"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="13.0663265306122"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.72959183673469"/>
+    <col collapsed="false" hidden="false" max="6" min="5" style="0" width="36.6275510204082"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="0" width="13.0663265306122"/>
+    <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.72959183673469"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -267,42 +264,49 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="3" t="str">
+        <f aca="false">TEXT(C2,"mmmm d")</f>
+        <v>March 3</v>
+      </c>
+      <c r="F2" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="0" t="s">
         <v>10</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" display="sudharsan.kg@saggezza.com"/>
-    <hyperlink ref="F2" r:id="rId2" display="sudharsan@27"/>
+    <hyperlink ref="G2" r:id="rId2" display="sudharsan@27"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
